--- a/data/trans_orig/P6704-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE21924-2DC5-4E96-86C1-39E5288336A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{387F95DC-C0FB-4114-B399-F66285866C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B1F5AB6-B5C1-42FD-8A93-754B4662FC2B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9A824E1-90D6-4C58-A77F-4BDCC4B73EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -76,19 +76,19 @@
     <t>21,04%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
   </si>
   <si>
     <t>27,88%</t>
@@ -97,7 +97,7 @@
     <t>22,83%</t>
   </si>
   <si>
-    <t>33,18%</t>
+    <t>33,02%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,1501 +106,1501 @@
     <t>20,68%</t>
   </si>
   <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>9,52%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>12,09%</t>
+    <t>12,3%</t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D8FC4B-C371-4B14-9AA6-A66CA46E90E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDDCE28-CCFC-48F2-A01B-BD56E9D5CE98}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2190,10 +2190,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -2202,13 +2202,13 @@
         <v>26635</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -2217,19 +2217,19 @@
         <v>64682</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>53</v>
@@ -2238,13 +2238,13 @@
         <v>56544</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -2253,13 +2253,13 @@
         <v>34236</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>86</v>
@@ -2268,19 +2268,19 @@
         <v>90780</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>19</v>
@@ -2289,13 +2289,13 @@
         <v>20706</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2304,13 +2304,13 @@
         <v>7253</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -2319,19 +2319,19 @@
         <v>27959</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>29</v>
@@ -2340,13 +2340,13 @@
         <v>29999</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -2355,13 +2355,13 @@
         <v>19465</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>47</v>
@@ -2370,13 +2370,13 @@
         <v>49465</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2391,13 @@
         <v>184018</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>129</v>
@@ -2406,13 +2406,13 @@
         <v>138917</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>305</v>
@@ -2421,18 +2421,18 @@
         <v>322935</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2444,13 +2444,13 @@
         <v>185883</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -2459,13 +2459,13 @@
         <v>130649</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>291</v>
@@ -2474,13 +2474,13 @@
         <v>316532</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,13 +2495,13 @@
         <v>152051</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>97</v>
@@ -2510,7 +2510,7 @@
         <v>103715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>74</v>
@@ -2537,7 +2537,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>272</v>
@@ -2549,10 +2549,10 @@
         <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -2561,13 +2561,13 @@
         <v>159663</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>420</v>
@@ -2576,19 +2576,19 @@
         <v>440860</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>148</v>
@@ -2639,7 +2639,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>130</v>
@@ -2699,13 +2699,13 @@
         <v>912449</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>532</v>
@@ -2714,13 +2714,13 @@
         <v>569625</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1396</v>
@@ -2729,13 +2729,13 @@
         <v>1482074</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,7 +2845,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>95</v>
@@ -2896,7 +2896,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>50</v>
@@ -2908,10 +2908,10 @@
         <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2920,13 +2920,13 @@
         <v>45784</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -2935,19 +2935,19 @@
         <v>97067</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>48</v>
@@ -2956,13 +2956,13 @@
         <v>55117</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -2971,13 +2971,13 @@
         <v>35512</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -2986,13 +2986,13 @@
         <v>90629</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3007,13 @@
         <v>315235</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>208</v>
@@ -3022,13 +3022,13 @@
         <v>232913</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>493</v>
@@ -3037,13 +3037,13 @@
         <v>548149</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3060,13 @@
         <v>264360</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -3075,13 +3075,13 @@
         <v>221866</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>446</v>
@@ -3090,13 +3090,13 @@
         <v>486225</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3111,13 @@
         <v>258212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>151</v>
@@ -3126,13 +3126,13 @@
         <v>163024</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>390</v>
@@ -3141,19 +3141,19 @@
         <v>421235</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>420</v>
@@ -3162,13 +3162,13 @@
         <v>438708</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>253</v>
@@ -3177,13 +3177,13 @@
         <v>272953</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>673</v>
@@ -3192,19 +3192,19 @@
         <v>711661</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>217</v>
@@ -3213,13 +3213,13 @@
         <v>227326</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -3228,13 +3228,13 @@
         <v>150671</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>358</v>
@@ -3243,19 +3243,19 @@
         <v>377998</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>207</v>
@@ -3264,13 +3264,13 @@
         <v>223097</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -3279,13 +3279,13 @@
         <v>132941</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>327</v>
@@ -3294,13 +3294,13 @@
         <v>356038</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3315,13 @@
         <v>1411702</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>869</v>
@@ -3330,13 +3330,13 @@
         <v>941455</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2194</v>
@@ -3345,18 +3345,18 @@
         <v>2353157</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847B325D-6BDF-40D1-9632-89C1B91156D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BAF102-C312-40D6-8DE2-6AC68B1198F3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3392,7 +3392,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3499,13 +3499,13 @@
         <v>36638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3514,13 +3514,13 @@
         <v>18871</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -3529,13 +3529,13 @@
         <v>55510</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3550,13 @@
         <v>26702</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -3565,13 +3565,13 @@
         <v>14073</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3580,19 +3580,19 @@
         <v>40775</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>46</v>
@@ -3601,13 +3601,13 @@
         <v>49997</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -3616,13 +3616,13 @@
         <v>22206</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -3631,19 +3631,19 @@
         <v>72203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>18</v>
@@ -3652,13 +3652,13 @@
         <v>19697</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3667,13 +3667,13 @@
         <v>8959</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3682,19 +3682,19 @@
         <v>28656</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
@@ -3703,13 +3703,13 @@
         <v>10084</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -3718,13 +3718,13 @@
         <v>7977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -3733,13 +3733,13 @@
         <v>18061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3754,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3769,13 +3769,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3784,18 +3784,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3807,13 +3807,13 @@
         <v>221455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -3822,13 +3822,13 @@
         <v>163442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -3837,13 +3837,13 @@
         <v>384896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3858,13 @@
         <v>147373</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -3900,7 +3900,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>259</v>
@@ -3942,16 +3942,16 @@
         <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>169</v>
@@ -3960,13 +3960,13 @@
         <v>179458</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -3975,13 +3975,13 @@
         <v>116746</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>282</v>
@@ -3990,19 +3990,19 @@
         <v>296203</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>93</v>
@@ -4011,13 +4011,13 @@
         <v>100719</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -4026,13 +4026,13 @@
         <v>55511</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
@@ -4041,13 +4041,13 @@
         <v>156230</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4062,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -4077,13 +4077,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -4092,13 +4092,13 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4115,13 @@
         <v>70948</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -4130,13 +4130,13 @@
         <v>78103</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -4145,13 +4145,13 @@
         <v>149051</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4166,13 @@
         <v>70464</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -4181,13 +4181,13 @@
         <v>54225</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -4196,19 +4196,19 @@
         <v>124689</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>89</v>
@@ -4217,13 +4217,13 @@
         <v>99084</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -4232,13 +4232,13 @@
         <v>86547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -4247,19 +4247,19 @@
         <v>185631</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>57</v>
@@ -4268,13 +4268,13 @@
         <v>59973</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -4283,13 +4283,13 @@
         <v>53668</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -4298,19 +4298,19 @@
         <v>113641</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>46</v>
@@ -4352,10 +4352,10 @@
         <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4370,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -4385,13 +4385,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -4400,13 +4400,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4423,13 @@
         <v>329042</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>253</v>
@@ -4438,13 +4438,13 @@
         <v>260415</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>558</v>
@@ -4453,13 +4453,13 @@
         <v>589457</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4474,13 @@
         <v>244539</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>191</v>
@@ -4489,13 +4489,13 @@
         <v>195079</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>420</v>
@@ -4504,19 +4504,19 @@
         <v>439617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>394</v>
@@ -4525,13 +4525,13 @@
         <v>425274</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>295</v>
@@ -4540,13 +4540,13 @@
         <v>299050</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>689</v>
@@ -4555,19 +4555,19 @@
         <v>724324</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>244</v>
@@ -4576,13 +4576,13 @@
         <v>259128</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>173</v>
@@ -4591,13 +4591,13 @@
         <v>179373</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>417</v>
@@ -4606,19 +4606,19 @@
         <v>438500</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>78</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>148</v>
@@ -4627,13 +4627,13 @@
         <v>160941</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -4642,13 +4642,13 @@
         <v>99398</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>219</v>
+        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>245</v>
@@ -4657,13 +4657,13 @@
         <v>260339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4678,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4693,13 +4693,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4708,18 +4708,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4738,7 +4738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906B3A91-0D53-47C7-A830-F1C91F794657}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A747DCDD-AA72-45AF-B280-E7E7BF4B6E64}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4755,7 +4755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4862,13 +4862,13 @@
         <v>8228</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>364</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4877,13 +4877,13 @@
         <v>5746</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4892,13 +4892,13 @@
         <v>13974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>362</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>251</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4913,13 @@
         <v>11949</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4928,13 +4928,13 @@
         <v>4772</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4943,19 +4943,19 @@
         <v>16721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>6</v>
@@ -4964,13 +4964,13 @@
         <v>5144</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -4979,13 +4979,13 @@
         <v>6868</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -4994,19 +4994,19 @@
         <v>12012</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -5015,13 +5015,13 @@
         <v>5007</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5030,13 +5030,13 @@
         <v>2186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5045,19 +5045,19 @@
         <v>7193</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -5066,13 +5066,13 @@
         <v>3059</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5081,13 +5081,13 @@
         <v>739</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5096,13 +5096,13 @@
         <v>3798</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5117,13 @@
         <v>33387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -5132,13 +5132,13 @@
         <v>20311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>66</v>
@@ -5147,18 +5147,18 @@
         <v>53698</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5170,28 +5170,28 @@
         <v>153696</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
       </c>
       <c r="I10" s="7">
-        <v>89998</v>
+        <v>89999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
@@ -5200,13 +5200,13 @@
         <v>243694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5221,13 @@
         <v>35794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>54</v>
@@ -5236,13 +5236,13 @@
         <v>38652</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -5251,19 +5251,19 @@
         <v>74446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>72</v>
@@ -5272,13 +5272,13 @@
         <v>80317</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H12" s="7">
         <v>83</v>
@@ -5287,13 +5287,13 @@
         <v>64402</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>151</v>
+        <v>422</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M12" s="7">
         <v>155</v>
@@ -5302,19 +5302,19 @@
         <v>144719</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>31</v>
@@ -5323,13 +5323,13 @@
         <v>35196</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -5338,13 +5338,13 @@
         <v>37363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -5353,19 +5353,19 @@
         <v>72559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>429</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>20</v>
@@ -5374,13 +5374,13 @@
         <v>25785</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -5389,13 +5389,13 @@
         <v>21939</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -5404,13 +5404,13 @@
         <v>47724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,28 +5425,28 @@
         <v>330788</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>331</v>
       </c>
       <c r="I15" s="7">
-        <v>252354</v>
+        <v>252355</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>576</v>
@@ -5455,13 +5455,13 @@
         <v>583142</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5478,13 @@
         <v>48352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -5493,13 +5493,13 @@
         <v>33236</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -5508,13 +5508,13 @@
         <v>81589</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5529,13 @@
         <v>18091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5544,13 +5544,13 @@
         <v>18280</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -5559,19 +5559,19 @@
         <v>36371</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>34</v>
@@ -5580,13 +5580,13 @@
         <v>35223</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -5595,13 +5595,13 @@
         <v>31031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>464</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
@@ -5610,19 +5610,19 @@
         <v>66254</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>13</v>
@@ -5631,13 +5631,13 @@
         <v>16188</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>465</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -5646,13 +5646,13 @@
         <v>11585</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -5661,19 +5661,19 @@
         <v>27772</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -5682,13 +5682,13 @@
         <v>14565</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -5697,13 +5697,13 @@
         <v>19210</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>479</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -5712,13 +5712,13 @@
         <v>33775</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>480</v>
+        <v>185</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5733,13 @@
         <v>132419</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>145</v>
@@ -5748,13 +5748,13 @@
         <v>113342</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>261</v>
@@ -5763,13 +5763,13 @@
         <v>245761</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5786,13 @@
         <v>210276</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -5801,13 +5801,13 @@
         <v>128981</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>304</v>
@@ -5816,13 +5816,13 @@
         <v>339257</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5837,13 @@
         <v>65834</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>85</v>
@@ -5852,10 +5852,10 @@
         <v>61704</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>415</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>496</v>
@@ -5873,13 +5873,13 @@
         <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>112</v>
@@ -5888,13 +5888,13 @@
         <v>120684</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>331</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="H24" s="7">
         <v>138</v>
@@ -5903,13 +5903,13 @@
         <v>102301</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M24" s="7">
         <v>250</v>
@@ -5918,19 +5918,19 @@
         <v>222985</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>29</v>
+        <v>505</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>48</v>
@@ -5939,13 +5939,13 @@
         <v>56391</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5954,13 +5954,13 @@
         <v>51133</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>508</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>307</v>
+        <v>512</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -5969,19 +5969,19 @@
         <v>107525</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>33</v>
@@ -5990,13 +5990,13 @@
         <v>43409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>513</v>
+        <v>380</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -6005,13 +6005,13 @@
         <v>41888</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -6020,7 +6020,7 @@
         <v>85298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>518</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>519</v>
@@ -6041,13 +6041,13 @@
         <v>496594</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -6056,13 +6056,13 @@
         <v>386007</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>903</v>
@@ -6071,18 +6071,18 @@
         <v>882602</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6704-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{387F95DC-C0FB-4114-B399-F66285866C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{194C24E0-96A2-4F3B-95AA-358286DDFC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9A824E1-90D6-4C58-A77F-4BDCC4B73EB9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7A57ECF-9EF4-4563-8D25-F8A29F8D9F59}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="526">
   <si>
     <t>Población según si le cuata olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -76,1525 +76,1540 @@
     <t>21,04%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
     <t>28,99%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
   </si>
   <si>
     <t>7,41%</t>
@@ -2012,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDDCE28-CCFC-48F2-A01B-BD56E9D5CE98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F6973D-2AB9-4478-AC18-89613D794010}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2190,10 +2205,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -2202,13 +2217,13 @@
         <v>26635</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -2217,10 +2232,10 @@
         <v>64682</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>28</v>
@@ -2510,13 +2525,13 @@
         <v>103715</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -2525,13 +2540,13 @@
         <v>255766</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,10 +2561,10 @@
         <v>281197</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>80</v>
@@ -2633,7 +2648,7 @@
         <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2663,13 @@
         <v>137981</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>72</v>
@@ -2663,13 +2678,13 @@
         <v>77964</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>202</v>
@@ -2678,13 +2693,13 @@
         <v>215944</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,7 +2755,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2752,13 +2767,13 @@
         <v>39755</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2767,13 +2782,13 @@
         <v>39890</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -2782,13 +2797,13 @@
         <v>79645</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2818,13 @@
         <v>68114</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2818,13 +2833,13 @@
         <v>32674</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -2833,13 +2848,13 @@
         <v>100788</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2869,13 @@
         <v>100967</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -2869,13 +2884,13 @@
         <v>79054</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>167</v>
@@ -2884,13 +2899,13 @@
         <v>180021</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2920,13 @@
         <v>51282</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2920,13 +2935,13 @@
         <v>45784</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -2935,13 +2950,13 @@
         <v>97067</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2971,13 @@
         <v>55117</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -2971,13 +2986,13 @@
         <v>35512</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -2986,13 +3001,13 @@
         <v>90629</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3075,13 @@
         <v>264360</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -3075,13 +3090,13 @@
         <v>221866</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>446</v>
@@ -3090,13 +3105,13 @@
         <v>486225</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3126,13 @@
         <v>258212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>151</v>
@@ -3126,13 +3141,13 @@
         <v>163024</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>390</v>
@@ -3141,13 +3156,13 @@
         <v>421235</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3177,13 @@
         <v>438708</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>253</v>
@@ -3177,13 +3192,13 @@
         <v>272953</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>673</v>
@@ -3192,13 +3207,13 @@
         <v>711661</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3228,13 @@
         <v>227326</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -3228,13 +3243,13 @@
         <v>150671</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>358</v>
@@ -3243,10 +3258,10 @@
         <v>377998</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>183</v>
@@ -3279,13 +3294,13 @@
         <v>132941</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>327</v>
@@ -3294,13 +3309,13 @@
         <v>356038</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,7 +3371,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BAF102-C312-40D6-8DE2-6AC68B1198F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE18286-6527-4473-B558-8A47B2CB5CD1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3392,7 +3407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3499,13 +3514,13 @@
         <v>36638</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3514,13 +3529,13 @@
         <v>18871</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -3529,13 +3544,13 @@
         <v>55510</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3565,13 @@
         <v>26702</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -3565,13 +3580,13 @@
         <v>14073</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3580,13 +3595,13 @@
         <v>40775</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3616,13 @@
         <v>49997</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -3616,13 +3631,13 @@
         <v>22206</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -3631,13 +3646,13 @@
         <v>72203</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3667,13 @@
         <v>19697</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3667,13 +3682,13 @@
         <v>8959</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3682,13 +3697,13 @@
         <v>28656</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3718,13 @@
         <v>10084</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -3718,13 +3733,13 @@
         <v>7977</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -3733,13 +3748,13 @@
         <v>18061</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3822,13 @@
         <v>221455</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -3822,13 +3837,13 @@
         <v>163442</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -3837,13 +3852,13 @@
         <v>384896</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3873,13 @@
         <v>147373</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -3942,10 +3957,10 @@
         <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3975,13 @@
         <v>179458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -3975,13 +3990,13 @@
         <v>116746</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>282</v>
@@ -3990,13 +4005,13 @@
         <v>296203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4026,13 @@
         <v>100719</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -4026,13 +4041,13 @@
         <v>55511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
@@ -4041,13 +4056,13 @@
         <v>156230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4118,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4115,13 +4130,13 @@
         <v>70948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -4130,10 +4145,10 @@
         <v>78103</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>283</v>
@@ -4145,13 +4160,13 @@
         <v>149051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,10 +4181,10 @@
         <v>70464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>288</v>
@@ -4181,10 +4196,10 @@
         <v>54225</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>290</v>
@@ -4286,10 +4301,10 @@
         <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -4298,13 +4313,13 @@
         <v>113641</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4334,13 @@
         <v>50139</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -4334,13 +4349,13 @@
         <v>35910</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -4349,13 +4364,13 @@
         <v>86049</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4438,13 @@
         <v>329042</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>253</v>
@@ -4438,13 +4453,13 @@
         <v>260415</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>558</v>
@@ -4453,13 +4468,13 @@
         <v>589457</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4489,13 @@
         <v>244539</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7">
         <v>191</v>
@@ -4489,13 +4504,13 @@
         <v>195079</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>420</v>
@@ -4504,13 +4519,13 @@
         <v>439617</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4540,13 @@
         <v>425274</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>295</v>
@@ -4540,13 +4555,13 @@
         <v>299050</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>689</v>
@@ -4555,13 +4570,13 @@
         <v>724324</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>13</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4591,13 @@
         <v>259128</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>173</v>
@@ -4591,13 +4606,13 @@
         <v>179373</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>417</v>
@@ -4606,13 +4621,13 @@
         <v>438500</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>50</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4642,13 @@
         <v>160941</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -4642,13 +4657,13 @@
         <v>99398</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>245</v>
@@ -4657,13 +4672,13 @@
         <v>260339</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,7 +4734,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4738,7 +4753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A747DCDD-AA72-45AF-B280-E7E7BF4B6E64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111FC44E-BF40-4B0B-B8BA-AE3F6E820F1D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4755,7 +4770,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4862,13 +4877,13 @@
         <v>8228</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4877,13 +4892,13 @@
         <v>5746</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4892,13 +4907,13 @@
         <v>13974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>366</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4928,13 @@
         <v>11949</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4928,13 +4943,13 @@
         <v>4772</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4943,13 +4958,13 @@
         <v>16721</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4979,13 @@
         <v>5144</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -4979,13 +4994,13 @@
         <v>6868</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -4994,13 +5009,13 @@
         <v>12012</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5030,13 @@
         <v>5007</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5030,13 +5045,13 @@
         <v>2186</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5045,13 +5060,13 @@
         <v>7193</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5081,13 @@
         <v>3059</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>393</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5081,13 +5096,13 @@
         <v>739</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5096,13 +5111,13 @@
         <v>3798</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5185,13 @@
         <v>153696</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -5185,13 +5200,13 @@
         <v>89999</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
@@ -5200,13 +5215,13 @@
         <v>243694</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,7 +5236,7 @@
         <v>35794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>411</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>412</v>
@@ -5239,10 +5254,10 @@
         <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>414</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -5251,13 +5266,13 @@
         <v>74446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,7 +5287,7 @@
         <v>80317</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>419</v>
@@ -5356,10 +5371,10 @@
         <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>434</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,7 +5481,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5547,10 +5562,10 @@
         <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -5559,10 +5574,10 @@
         <v>36371</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>65</v>
@@ -5580,13 +5595,13 @@
         <v>35223</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -5595,13 +5610,13 @@
         <v>31031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
@@ -5610,13 +5625,13 @@
         <v>66254</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5646,13 @@
         <v>16188</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -5646,13 +5661,13 @@
         <v>11585</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -5661,13 +5676,13 @@
         <v>27772</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5697,13 @@
         <v>14565</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -5697,13 +5712,13 @@
         <v>19210</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -5712,13 +5727,13 @@
         <v>33775</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>485</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5801,13 @@
         <v>210276</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -5801,13 +5816,13 @@
         <v>128981</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>304</v>
@@ -5816,13 +5831,13 @@
         <v>339257</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5852,13 @@
         <v>65834</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>499</v>
       </c>
       <c r="H23" s="7">
         <v>85</v>
@@ -5852,13 +5867,13 @@
         <v>61704</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M23" s="7">
         <v>149</v>
@@ -5867,13 +5882,13 @@
         <v>127538</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5903,13 @@
         <v>120684</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="H24" s="7">
         <v>138</v>
@@ -5903,13 +5918,13 @@
         <v>102301</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>503</v>
+        <v>326</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M24" s="7">
         <v>250</v>
@@ -5918,13 +5933,13 @@
         <v>222985</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5954,13 @@
         <v>56391</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>508</v>
+        <v>51</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5954,13 +5969,13 @@
         <v>51133</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>515</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -5969,13 +5984,13 @@
         <v>107525</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +6005,13 @@
         <v>43409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -6005,13 +6020,13 @@
         <v>41888</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -6020,13 +6035,13 @@
         <v>85298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>523</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,7 +6097,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6704-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{194C24E0-96A2-4F3B-95AA-358286DDFC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C65D663-9A47-4028-91D8-428FD04813D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7A57ECF-9EF4-4563-8D25-F8A29F8D9F59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E428F26A-F18F-4109-837B-E6AA02EC2D68}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="526">
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="521">
+  <si>
+    <t>Población según si le cuesta olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,28 +76,28 @@
     <t>21,04%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
   </si>
   <si>
     <t>27,88%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,1507 +106,1492 @@
     <t>20,68%</t>
   </si>
   <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le cuesta olvidar los problemas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>Población según si le cuesta olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>9,66%</t>
@@ -1615,7 +1600,7 @@
     <t>7,41%</t>
   </si>
   <si>
-    <t>12,3%</t>
+    <t>12,09%</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F6973D-2AB9-4478-AC18-89613D794010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48DD3B6-FCEE-423B-90AA-FB16B4457D89}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2235,16 +2220,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>53</v>
@@ -2253,13 +2238,13 @@
         <v>56544</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -2268,13 +2253,13 @@
         <v>34236</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>86</v>
@@ -2283,19 +2268,19 @@
         <v>90780</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>19</v>
@@ -2304,13 +2289,13 @@
         <v>20706</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2319,13 +2304,13 @@
         <v>7253</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -2334,19 +2319,19 @@
         <v>27959</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>29</v>
@@ -2355,13 +2340,13 @@
         <v>29999</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -2370,13 +2355,13 @@
         <v>19465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>47</v>
@@ -2385,13 +2370,13 @@
         <v>49465</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2391,13 @@
         <v>184018</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>129</v>
@@ -2421,13 +2406,13 @@
         <v>138917</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>305</v>
@@ -2436,18 +2421,18 @@
         <v>322935</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2459,13 +2444,13 @@
         <v>185883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -2474,13 +2459,13 @@
         <v>130649</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>291</v>
@@ -2489,13 +2474,13 @@
         <v>316532</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2495,13 @@
         <v>152051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>97</v>
@@ -2525,13 +2510,13 @@
         <v>103715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -2540,19 +2525,19 @@
         <v>255766</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>272</v>
@@ -2561,13 +2546,13 @@
         <v>281197</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -2576,13 +2561,13 @@
         <v>159663</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>420</v>
@@ -2591,19 +2576,19 @@
         <v>440860</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>148</v>
@@ -2648,13 +2633,13 @@
         <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>130</v>
@@ -2663,13 +2648,13 @@
         <v>137981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>72</v>
@@ -2678,13 +2663,13 @@
         <v>77964</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>202</v>
@@ -2693,13 +2678,13 @@
         <v>215944</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2699,13 @@
         <v>912449</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>532</v>
@@ -2729,13 +2714,13 @@
         <v>569625</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1396</v>
@@ -2744,18 +2729,18 @@
         <v>1482074</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2767,13 +2752,13 @@
         <v>39755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2782,13 +2767,13 @@
         <v>39890</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -2797,13 +2782,13 @@
         <v>79645</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2803,13 @@
         <v>68114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2833,13 +2818,13 @@
         <v>32674</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -2848,19 +2833,19 @@
         <v>100788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>95</v>
@@ -2869,13 +2854,13 @@
         <v>100967</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -2884,13 +2869,13 @@
         <v>79054</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>167</v>
@@ -2899,19 +2884,19 @@
         <v>180021</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>50</v>
@@ -2920,13 +2905,13 @@
         <v>51282</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2935,13 +2920,13 @@
         <v>45784</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -2950,10 +2935,10 @@
         <v>97067</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>139</v>
@@ -2962,7 +2947,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>48</v>
@@ -2986,13 +2971,13 @@
         <v>35512</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -3001,7 +2986,7 @@
         <v>90629</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>146</v>
@@ -3022,13 +3007,13 @@
         <v>315235</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>208</v>
@@ -3037,13 +3022,13 @@
         <v>232913</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>493</v>
@@ -3052,13 +3037,13 @@
         <v>548149</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,10 +3063,10 @@
         <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -3090,13 +3075,13 @@
         <v>221866</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>446</v>
@@ -3105,13 +3090,13 @@
         <v>486225</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3111,13 @@
         <v>258212</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>151</v>
@@ -3141,13 +3126,13 @@
         <v>163024</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>390</v>
@@ -3156,19 +3141,19 @@
         <v>421235</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>420</v>
@@ -3177,13 +3162,13 @@
         <v>438708</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>253</v>
@@ -3192,13 +3177,13 @@
         <v>272953</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>673</v>
@@ -3207,19 +3192,19 @@
         <v>711661</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>217</v>
@@ -3228,13 +3213,13 @@
         <v>227326</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -3243,13 +3228,13 @@
         <v>150671</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>358</v>
@@ -3258,19 +3243,19 @@
         <v>377998</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>207</v>
@@ -3279,13 +3264,13 @@
         <v>223097</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -3294,13 +3279,13 @@
         <v>132941</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>327</v>
@@ -3309,13 +3294,13 @@
         <v>356038</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3315,13 @@
         <v>1411702</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>869</v>
@@ -3345,13 +3330,13 @@
         <v>941455</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>2194</v>
@@ -3360,18 +3345,18 @@
         <v>2353157</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3390,7 +3375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE18286-6527-4473-B558-8A47B2CB5CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3254B09C-768F-4FC7-9B68-FD4C263FAFBC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3407,7 +3392,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3514,13 +3499,13 @@
         <v>36638</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3529,13 +3514,13 @@
         <v>18871</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -3544,13 +3529,13 @@
         <v>55510</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3550,13 @@
         <v>26702</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -3580,13 +3565,13 @@
         <v>14073</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3595,19 +3580,19 @@
         <v>40775</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>46</v>
@@ -3616,13 +3601,13 @@
         <v>49997</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -3631,10 +3616,10 @@
         <v>22206</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>214</v>
@@ -3658,7 +3643,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>18</v>
@@ -3703,13 +3688,13 @@
         <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
@@ -3718,13 +3703,13 @@
         <v>10084</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -3733,13 +3718,13 @@
         <v>7977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -3748,13 +3733,13 @@
         <v>18061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3754,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3784,13 +3769,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3799,18 +3784,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3822,13 +3807,13 @@
         <v>221455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -3837,13 +3822,13 @@
         <v>163442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -3852,13 +3837,13 @@
         <v>384896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3858,13 @@
         <v>147373</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -3915,7 +3900,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>259</v>
@@ -3966,7 +3951,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>169</v>
@@ -4017,7 +4002,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>93</v>
@@ -4077,13 +4062,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -4092,13 +4077,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -4107,18 +4092,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4130,13 +4115,13 @@
         <v>70948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -4145,13 +4130,13 @@
         <v>78103</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>270</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -4160,13 +4145,13 @@
         <v>149051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4166,13 @@
         <v>70464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -4196,13 +4181,13 @@
         <v>54225</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -4211,19 +4196,19 @@
         <v>124689</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>89</v>
@@ -4232,13 +4217,13 @@
         <v>99084</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -4247,13 +4232,13 @@
         <v>86547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -4262,19 +4247,19 @@
         <v>185631</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>57</v>
@@ -4283,13 +4268,13 @@
         <v>59973</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -4298,13 +4283,13 @@
         <v>53668</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>146</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -4313,19 +4298,19 @@
         <v>113641</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>46</v>
@@ -4334,13 +4319,13 @@
         <v>50139</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -4349,13 +4334,13 @@
         <v>35910</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -4364,13 +4349,13 @@
         <v>86049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4370,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -4400,13 +4385,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -4415,13 +4400,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4423,13 @@
         <v>329042</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>253</v>
@@ -4453,13 +4438,13 @@
         <v>260415</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>558</v>
@@ -4468,13 +4453,13 @@
         <v>589457</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4474,13 @@
         <v>244539</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7">
         <v>191</v>
@@ -4504,13 +4489,13 @@
         <v>195079</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>420</v>
@@ -4519,19 +4504,19 @@
         <v>439617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>394</v>
@@ -4540,13 +4525,13 @@
         <v>425274</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>295</v>
@@ -4555,13 +4540,13 @@
         <v>299050</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>689</v>
@@ -4570,19 +4555,19 @@
         <v>724324</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>244</v>
@@ -4591,13 +4576,13 @@
         <v>259128</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>173</v>
@@ -4606,13 +4591,13 @@
         <v>179373</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>417</v>
@@ -4624,16 +4609,16 @@
         <v>265</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>148</v>
@@ -4642,13 +4627,13 @@
         <v>160941</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -4657,13 +4642,13 @@
         <v>99398</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>219</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>245</v>
@@ -4672,13 +4657,13 @@
         <v>260339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4678,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4708,13 +4693,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4723,18 +4708,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4753,7 +4738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111FC44E-BF40-4B0B-B8BA-AE3F6E820F1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B924CD-E601-420C-831F-1E0E3DB40004}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4770,7 +4755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4877,13 +4862,13 @@
         <v>8228</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4892,13 +4877,13 @@
         <v>5746</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4907,13 +4892,13 @@
         <v>13974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4913,13 @@
         <v>11949</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4943,13 +4928,13 @@
         <v>4772</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4958,19 +4943,19 @@
         <v>16721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>6</v>
@@ -4979,13 +4964,13 @@
         <v>5144</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -4994,13 +4979,13 @@
         <v>6868</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -5009,19 +4994,19 @@
         <v>12012</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>242</v>
+        <v>377</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -5030,13 +5015,13 @@
         <v>5007</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5045,13 +5030,13 @@
         <v>2186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5060,19 +5045,19 @@
         <v>7193</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -5081,13 +5066,13 @@
         <v>3059</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5096,13 +5081,13 @@
         <v>739</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5111,13 +5096,13 @@
         <v>3798</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5117,13 @@
         <v>33387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -5147,13 +5132,13 @@
         <v>20311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>66</v>
@@ -5162,18 +5147,18 @@
         <v>53698</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5185,28 +5170,28 @@
         <v>153696</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
       </c>
       <c r="I10" s="7">
-        <v>89999</v>
+        <v>89998</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
@@ -5215,13 +5200,13 @@
         <v>243694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5221,13 @@
         <v>35794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
         <v>54</v>
@@ -5251,13 +5236,13 @@
         <v>38652</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -5266,19 +5251,19 @@
         <v>74446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>72</v>
@@ -5287,13 +5272,13 @@
         <v>80317</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H12" s="7">
         <v>83</v>
@@ -5302,13 +5287,13 @@
         <v>64402</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>422</v>
+        <v>151</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M12" s="7">
         <v>155</v>
@@ -5317,19 +5302,19 @@
         <v>144719</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>31</v>
@@ -5338,13 +5323,13 @@
         <v>35196</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -5353,13 +5338,13 @@
         <v>37363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -5368,19 +5353,19 @@
         <v>72559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>20</v>
@@ -5389,13 +5374,13 @@
         <v>25785</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -5404,13 +5389,13 @@
         <v>21939</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -5419,13 +5404,13 @@
         <v>47724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,28 +5425,28 @@
         <v>330788</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>331</v>
       </c>
       <c r="I15" s="7">
-        <v>252355</v>
+        <v>252354</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>576</v>
@@ -5470,18 +5455,18 @@
         <v>583142</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5493,13 +5478,13 @@
         <v>48352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -5508,13 +5493,13 @@
         <v>33236</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -5523,13 +5508,13 @@
         <v>81589</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5529,13 @@
         <v>18091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5559,13 +5544,13 @@
         <v>18280</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -5574,19 +5559,19 @@
         <v>36371</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>34</v>
@@ -5595,13 +5580,13 @@
         <v>35223</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -5610,13 +5595,13 @@
         <v>31031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>465</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
@@ -5625,19 +5610,19 @@
         <v>66254</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>13</v>
@@ -5646,13 +5631,13 @@
         <v>16188</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -5661,13 +5646,13 @@
         <v>11585</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -5676,19 +5661,19 @@
         <v>27772</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -5697,13 +5682,13 @@
         <v>14565</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -5712,13 +5697,13 @@
         <v>19210</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -5727,13 +5712,13 @@
         <v>33775</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5733,13 @@
         <v>132419</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>145</v>
@@ -5763,13 +5748,13 @@
         <v>113342</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>261</v>
@@ -5778,13 +5763,13 @@
         <v>245761</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5786,13 @@
         <v>210276</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -5816,13 +5801,13 @@
         <v>128981</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M22" s="7">
         <v>304</v>
@@ -5831,13 +5816,13 @@
         <v>339257</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5837,13 @@
         <v>65834</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>499</v>
+        <v>87</v>
       </c>
       <c r="H23" s="7">
         <v>85</v>
@@ -5867,13 +5852,13 @@
         <v>61704</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>149</v>
@@ -5882,19 +5867,19 @@
         <v>127538</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>504</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>112</v>
@@ -5903,13 +5888,13 @@
         <v>120684</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>331</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="H24" s="7">
         <v>138</v>
@@ -5918,13 +5903,13 @@
         <v>102301</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>326</v>
+        <v>501</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M24" s="7">
         <v>250</v>
@@ -5933,19 +5918,19 @@
         <v>222985</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>48</v>
@@ -5954,13 +5939,13 @@
         <v>56391</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>51</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5969,13 +5954,13 @@
         <v>51133</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>514</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>516</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -5984,19 +5969,19 @@
         <v>107525</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>33</v>
@@ -6005,13 +5990,13 @@
         <v>43409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>379</v>
+        <v>513</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -6020,13 +6005,13 @@
         <v>41888</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -6035,13 +6020,13 @@
         <v>85298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6041,13 @@
         <v>496594</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -6071,13 +6056,13 @@
         <v>386007</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>903</v>
@@ -6086,18 +6071,18 @@
         <v>882602</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6704-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C65D663-9A47-4028-91D8-428FD04813D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF6C2820-D09B-495D-A0AD-FB081FC67CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E428F26A-F18F-4109-837B-E6AA02EC2D68}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{25D0F7C0-9424-4616-9488-BE4DAFA9DD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="518">
   <si>
     <t>Población según si le cuesta olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -1111,496 +1111,487 @@
     <t>Población según si le cuesta olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
   </si>
   <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48DD3B6-FCEE-423B-90AA-FB16B4457D89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D40DA92-EAB1-4CB3-9FEF-4B5965544016}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3375,7 +3366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3254B09C-768F-4FC7-9B68-FD4C263FAFBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43952CE9-969B-4DE1-9E5C-C3990FC3065D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4450,7 +4441,7 @@
         <v>558</v>
       </c>
       <c r="N22" s="7">
-        <v>589457</v>
+        <v>589458</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>323</v>
@@ -4501,7 +4492,7 @@
         <v>420</v>
       </c>
       <c r="N23" s="7">
-        <v>439617</v>
+        <v>439618</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>330</v>
@@ -4603,7 +4594,7 @@
         <v>417</v>
       </c>
       <c r="N25" s="7">
-        <v>438500</v>
+        <v>438501</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>265</v>
@@ -4705,7 +4696,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4738,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B924CD-E601-420C-831F-1E0E3DB40004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE108812-F54B-488F-8BC5-D026F93E5F80}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4859,43 +4850,43 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>8228</v>
+        <v>7865</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>357</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>358</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>5746</v>
+        <v>5107</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>13974</v>
+        <v>12972</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>363</v>
@@ -4910,7 +4901,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>11949</v>
+        <v>12882</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>364</v>
@@ -4925,7 +4916,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>4772</v>
+        <v>4150</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>367</v>
@@ -4940,16 +4931,16 @@
         <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>16721</v>
+        <v>17032</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>370</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,46 +4952,46 @@
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>5144</v>
+        <v>5000</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>6868</v>
+        <v>6229</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>148</v>
+        <v>377</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>12012</v>
+        <v>11230</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,46 +5003,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>5007</v>
+        <v>4270</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>2186</v>
+        <v>2019</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>7193</v>
+        <v>6289</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,46 +5054,46 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>3059</v>
+        <v>2925</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>739</v>
+        <v>697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>3798</v>
+        <v>3622</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,7 +5105,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>33387</v>
+        <v>32942</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -5129,7 +5120,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>20311</v>
+        <v>18203</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5144,7 +5135,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>53698</v>
+        <v>51145</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5167,46 +5158,46 @@
         <v>86</v>
       </c>
       <c r="D10" s="7">
-        <v>153696</v>
+        <v>342381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
       </c>
       <c r="I10" s="7">
-        <v>89998</v>
+        <v>81693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
       </c>
       <c r="N10" s="7">
-        <v>243694</v>
+        <v>424074</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,46 +5209,46 @@
         <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>35794</v>
+        <v>34258</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>411</v>
       </c>
       <c r="H11" s="7">
         <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>38652</v>
+        <v>35556</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>74446</v>
+        <v>69814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>413</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,46 +5260,46 @@
         <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>80317</v>
+        <v>76906</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>414</v>
+        <v>266</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>83</v>
       </c>
       <c r="I12" s="7">
-        <v>64402</v>
+        <v>58600</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>151</v>
+        <v>420</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>155</v>
       </c>
       <c r="N12" s="7">
-        <v>144719</v>
+        <v>135505</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>341</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>420</v>
+        <v>233</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5311,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>35196</v>
+        <v>33215</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>424</v>
@@ -5335,31 +5326,31 @@
         <v>49</v>
       </c>
       <c r="I13" s="7">
-        <v>37363</v>
+        <v>34068</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>425</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
       </c>
       <c r="N13" s="7">
-        <v>72559</v>
+        <v>67283</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>429</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>430</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,46 +5362,46 @@
         <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>25785</v>
+        <v>24882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>21939</v>
+        <v>20358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
       </c>
       <c r="N14" s="7">
-        <v>47724</v>
+        <v>45239</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,7 +5413,7 @@
         <v>245</v>
       </c>
       <c r="D15" s="7">
-        <v>330788</v>
+        <v>511641</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5437,7 +5428,7 @@
         <v>331</v>
       </c>
       <c r="I15" s="7">
-        <v>252354</v>
+        <v>230274</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5452,7 +5443,7 @@
         <v>576</v>
       </c>
       <c r="N15" s="7">
-        <v>583142</v>
+        <v>741915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5475,46 +5466,46 @@
         <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>48352</v>
+        <v>45894</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
       </c>
       <c r="I16" s="7">
-        <v>33236</v>
+        <v>30462</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
       </c>
       <c r="N16" s="7">
-        <v>81589</v>
+        <v>76356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,46 +5517,46 @@
         <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>18091</v>
+        <v>16829</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>18280</v>
+        <v>17317</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>36371</v>
+        <v>34145</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,46 +5568,46 @@
         <v>34</v>
       </c>
       <c r="D18" s="7">
-        <v>35223</v>
+        <v>34024</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
       </c>
       <c r="I18" s="7">
-        <v>31031</v>
+        <v>29091</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>456</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
       </c>
       <c r="N18" s="7">
-        <v>66254</v>
+        <v>63115</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>464</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,46 +5619,46 @@
         <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>16188</v>
+        <v>15100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>149</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>11585</v>
+        <v>10354</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
       </c>
       <c r="N19" s="7">
-        <v>27772</v>
+        <v>25455</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,46 +5670,46 @@
         <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>14565</v>
+        <v>13368</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
       </c>
       <c r="I20" s="7">
-        <v>19210</v>
+        <v>17626</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
       </c>
       <c r="N20" s="7">
-        <v>33775</v>
+        <v>30994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,7 +5721,7 @@
         <v>116</v>
       </c>
       <c r="D21" s="7">
-        <v>132419</v>
+        <v>125215</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5745,7 +5736,7 @@
         <v>145</v>
       </c>
       <c r="I21" s="7">
-        <v>113342</v>
+        <v>104849</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5760,7 +5751,7 @@
         <v>261</v>
       </c>
       <c r="N21" s="7">
-        <v>245761</v>
+        <v>230064</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5783,46 +5774,46 @@
         <v>137</v>
       </c>
       <c r="D22" s="7">
-        <v>210276</v>
+        <v>396140</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
       </c>
       <c r="I22" s="7">
-        <v>128981</v>
+        <v>117261</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>486</v>
+        <v>440</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>304</v>
       </c>
       <c r="N22" s="7">
-        <v>339257</v>
+        <v>513401</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,46 +5825,46 @@
         <v>64</v>
       </c>
       <c r="D23" s="7">
-        <v>65834</v>
+        <v>63968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>487</v>
       </c>
       <c r="H23" s="7">
         <v>85</v>
       </c>
       <c r="I23" s="7">
-        <v>61704</v>
+        <v>57023</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M23" s="7">
         <v>149</v>
       </c>
       <c r="N23" s="7">
-        <v>127538</v>
+        <v>120991</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,46 +5876,46 @@
         <v>112</v>
       </c>
       <c r="D24" s="7">
-        <v>120684</v>
+        <v>115931</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>331</v>
+        <v>495</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="H24" s="7">
         <v>138</v>
       </c>
       <c r="I24" s="7">
-        <v>102301</v>
+        <v>93919</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M24" s="7">
         <v>250</v>
       </c>
       <c r="N24" s="7">
-        <v>222985</v>
+        <v>209850</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>29</v>
+        <v>499</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>503</v>
+        <v>450</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,46 +5927,46 @@
         <v>48</v>
       </c>
       <c r="D25" s="7">
-        <v>56391</v>
+        <v>52585</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>507</v>
+        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
       </c>
       <c r="I25" s="7">
-        <v>51133</v>
+        <v>46442</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>503</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>307</v>
+        <v>505</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
       </c>
       <c r="N25" s="7">
-        <v>107525</v>
+        <v>99027</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,46 +5978,46 @@
         <v>33</v>
       </c>
       <c r="D26" s="7">
-        <v>43409</v>
+        <v>41175</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
       </c>
       <c r="I26" s="7">
-        <v>41888</v>
+        <v>38680</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
       </c>
       <c r="N26" s="7">
-        <v>85298</v>
+        <v>79855</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,7 +6029,7 @@
         <v>394</v>
       </c>
       <c r="D27" s="7">
-        <v>496594</v>
+        <v>669799</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6053,7 +6044,7 @@
         <v>509</v>
       </c>
       <c r="I27" s="7">
-        <v>386007</v>
+        <v>353325</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6068,7 +6059,7 @@
         <v>903</v>
       </c>
       <c r="N27" s="7">
-        <v>882602</v>
+        <v>1023124</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
